--- a/library/network_devices.xlsx
+++ b/library/network_devices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\get_devices_info\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D59B5F5-A457-40C6-9C44-58879DCE830A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB52E69-6374-4EA5-AF2B-11B037756ACF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{466190F6-5552-4B8A-B6B3-430FE210C01A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>ploor7-sw-lab</t>
   </si>
@@ -61,6 +61,27 @@
   </si>
   <si>
     <t>device_name</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>ex3400</t>
+  </si>
+  <si>
+    <t>oren-flr1sw-B1</t>
+  </si>
+  <si>
+    <t>10.9.106.11</t>
+  </si>
+  <si>
+    <t>192.168.20.243</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>home-vsrx</t>
   </si>
 </sst>
 </file>
@@ -420,17 +441,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385C0010-5489-4B68-A2C5-E293CC4576B2}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -477,6 +498,39 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/library/network_devices.xlsx
+++ b/library/network_devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\get_devices_info\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB52E69-6374-4EA5-AF2B-11B037756ACF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8BF43E-467C-4A0C-ABFF-ECCF6B49E88F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{466190F6-5552-4B8A-B6B3-430FE210C01A}"/>
+    <workbookView xWindow="4665" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{466190F6-5552-4B8A-B6B3-430FE210C01A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>ploor7-sw-lab</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>home-vsrx</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>ex3300</t>
+  </si>
+  <si>
+    <t>vsrx</t>
   </si>
 </sst>
 </file>
@@ -441,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385C0010-5489-4B68-A2C5-E293CC4576B2}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +463,7 @@
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -464,8 +473,11 @@
       <c r="C1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -475,8 +487,11 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -486,8 +501,11 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -497,38 +515,64 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/library/network_devices.xlsx
+++ b/library/network_devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\get_devices_info\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8BF43E-467C-4A0C-ABFF-ECCF6B49E88F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B534BC71-24BA-47C0-BB40-F390D99B1AFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{466190F6-5552-4B8A-B6B3-430FE210C01A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{466190F6-5552-4B8A-B6B3-430FE210C01A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>ploor7-sw-lab</t>
   </si>
@@ -91,6 +91,21 @@
   </si>
   <si>
     <t>vsrx</t>
+  </si>
+  <si>
+    <t>10.9.106.46</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>pt-router-guest</t>
+  </si>
+  <si>
+    <t>10.10.106.1</t>
+  </si>
+  <si>
+    <t>pt-router-ext1</t>
   </si>
 </sst>
 </file>
@@ -450,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385C0010-5489-4B68-A2C5-E293CC4576B2}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,43 +550,71 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
     </row>
